--- a/Excel_Files/Stats_Populations/1_cm/754_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1_cm/754_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002672951846001519</v>
+        <v>0.005285964688385648</v>
       </c>
       <c r="D2">
-        <v>0.0004001150127521999</v>
+        <v>0.005391893647011835</v>
       </c>
       <c r="E2">
-        <v>0.000308157049168331</v>
+        <v>0.005437607985748243</v>
       </c>
       <c r="F2">
-        <v>0.0003306175141367627</v>
+        <v>0.005318289138130049</v>
       </c>
       <c r="G2">
-        <v>0.0001616480418270737</v>
+        <v>0.005160482341405666</v>
       </c>
       <c r="H2">
-        <v>0.0004001150127521999</v>
+        <v>0.005437607985748243</v>
       </c>
       <c r="I2">
-        <v>0.0005107849578563785</v>
+        <v>0.005653713173871085</v>
       </c>
       <c r="J2">
-        <v>0.0005999752010136195</v>
+        <v>0.005539619749793462</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001058932372163474</v>
+        <v>0.005046840857596581</v>
       </c>
       <c r="D3">
-        <v>0.0003228175437710838</v>
+        <v>0.004964585475358041</v>
       </c>
       <c r="E3">
-        <v>0.0002052539925557343</v>
+        <v>0.004949983378177062</v>
       </c>
       <c r="F3">
-        <v>0.0001265676087382192</v>
+        <v>0.00480532682422059</v>
       </c>
       <c r="G3">
-        <v>0.0001142849625837988</v>
+        <v>0.004788445479018495</v>
       </c>
       <c r="H3">
-        <v>0.0002016023677808641</v>
+        <v>0.004946758766106171</v>
       </c>
       <c r="I3">
-        <v>0.0002100086234870124</v>
+        <v>0.005335372351104859</v>
       </c>
       <c r="J3">
-        <v>9.566157473831571E-05</v>
+        <v>0.00498801271866082</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>7.098351653314339E-05</v>
+        <v>0.004594590812915314</v>
       </c>
       <c r="D4">
-        <v>0.0001558458734193103</v>
+        <v>0.004711255492145785</v>
       </c>
       <c r="E4">
-        <v>0.0001279991380328288</v>
+        <v>0.004764403785888555</v>
       </c>
       <c r="F4">
-        <v>5.012245371931452E-05</v>
+        <v>0.00426796219917779</v>
       </c>
       <c r="G4">
-        <v>4.328009144181756E-05</v>
+        <v>0.004081894635304115</v>
       </c>
       <c r="H4">
-        <v>9.506195805590467E-05</v>
+        <v>0.004589061614945775</v>
       </c>
       <c r="I4">
-        <v>0.0001389157154963451</v>
+        <v>0.005188023211465435</v>
       </c>
       <c r="J4">
-        <v>3.87068857189568E-05</v>
+        <v>0.004266403301242908</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>4.27524651843594E-06</v>
+        <v>0.002280560678926947</v>
       </c>
       <c r="D5">
-        <v>5.281748717753311E-06</v>
+        <v>0.002437416225978278</v>
       </c>
       <c r="E5">
-        <v>4.404621344656114E-06</v>
+        <v>0.002328697686402989</v>
       </c>
       <c r="F5">
-        <v>2.213780787579539E-06</v>
+        <v>0.001881219003182886</v>
       </c>
       <c r="G5">
-        <v>1.538733732995766E-06</v>
+        <v>0.001684642119530702</v>
       </c>
       <c r="H5">
-        <v>2.795881239667703E-06</v>
+        <v>0.002020440336295176</v>
       </c>
       <c r="I5">
-        <v>3.703089390390418E-06</v>
+        <v>0.002184755253584425</v>
       </c>
       <c r="J5">
-        <v>3.467348491290589E-06</v>
+        <v>0.002133682454683748</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>2.568820976870232E-06</v>
+        <v>0.001964386656294399</v>
       </c>
       <c r="D6">
-        <v>2.465597819901073E-06</v>
+        <v>0.001966920206986855</v>
       </c>
       <c r="E6">
-        <v>2.089352912521083E-06</v>
+        <v>0.001865716825966345</v>
       </c>
       <c r="F6">
-        <v>9.728669640092452E-07</v>
+        <v>0.00148724011031454</v>
       </c>
       <c r="G6">
-        <v>9.015885698786236E-07</v>
+        <v>0.001433763265465896</v>
       </c>
       <c r="H6">
-        <v>1.232982690663538E-06</v>
+        <v>0.001583590437143347</v>
       </c>
       <c r="I6">
-        <v>2.510547643845136E-06</v>
+        <v>0.001933212332694231</v>
       </c>
       <c r="J6">
-        <v>1.531194905628662E-06</v>
+        <v>0.001639947570842208</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.263361660528464E-06</v>
+        <v>0.001593082757231982</v>
       </c>
       <c r="D7">
-        <v>1.238483530993777E-06</v>
+        <v>0.001598176543457491</v>
       </c>
       <c r="E7">
-        <v>6.320778820651951E-07</v>
+        <v>0.001284010702653735</v>
       </c>
       <c r="F7">
-        <v>2.166506400103344E-07</v>
+        <v>0.0009228105984037196</v>
       </c>
       <c r="G7">
-        <v>4.295880830018793E-07</v>
+        <v>0.001130069992936987</v>
       </c>
       <c r="H7">
-        <v>2.166506400103344E-07</v>
+        <v>0.0009228105984037196</v>
       </c>
       <c r="I7">
-        <v>1.380622600584794E-06</v>
+        <v>0.001655020105896703</v>
       </c>
       <c r="J7">
-        <v>8.153415143348355E-07</v>
+        <v>0.001392251274256325</v>
       </c>
     </row>
   </sheetData>
